--- a/data/trans_orig/Q24D_2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q24D_2-Clase-trans_orig.xlsx
@@ -693,7 +693,7 @@
         <v>2.463006063459309</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>2.727258717520006</v>
+        <v>2.727258717520007</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.811324915200137</v>
+        <v>1.828607431427864</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.325239137643296</v>
+        <v>2.341365639182461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.091957445249883</v>
+        <v>2.065422135340414</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.315986515807809</v>
+        <v>2.323539764551467</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.740268200038202</v>
+        <v>1.740943153702969</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.636818054565195</v>
+        <v>2.701867877180324</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.707315238338081</v>
+        <v>1.699484197686179</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.085721383986584</v>
+        <v>2.06620366690627</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.871301068903042</v>
+        <v>1.880288230997872</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2.541875057613253</v>
+        <v>2.530864500001248</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.073366464356909</v>
+        <v>2.047884325153432</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>2.348594718311112</v>
+        <v>2.351816527637609</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.603964514472101</v>
+        <v>2.671365512739811</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.53151573557925</v>
+        <v>3.557687464110658</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.161534110915286</v>
+        <v>4.043549046095944</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.934540746902567</v>
+        <v>3.742326869556739</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.381326882284211</v>
+        <v>3.336604414982071</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.882089007627676</v>
+        <v>3.903565320952391</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.412946120036529</v>
+        <v>2.416493164552306</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.138843465097198</v>
+        <v>3.225711356163042</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.621499117462955</v>
+        <v>2.648449348193997</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.380325632134786</v>
+        <v>3.419331740482368</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3.449255392605352</v>
+        <v>3.43003744247236</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>3.362988917036439</v>
+        <v>3.329446534604564</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>2.123408129589552</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.852400358762512</v>
+        <v>2.852400358762511</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>1.997041866159019</v>
@@ -817,7 +817,7 @@
         <v>1.984316865083009</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>2.35250572433766</v>
+        <v>2.352505724337661</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>2.487907729595347</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.271789715444166</v>
+        <v>2.239836803467755</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.328343572494698</v>
+        <v>2.338222115382921</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.750027699824467</v>
+        <v>1.757999656987376</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.18374552603144</v>
+        <v>2.160742125113345</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.688482065719103</v>
+        <v>1.693113727926277</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.879426222221817</v>
+        <v>1.863700475015322</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.631328047115711</v>
+        <v>1.644797054433855</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.01219647070632</v>
+        <v>2.044376049970489</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.071008657837985</v>
+        <v>2.0919578334139</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2.218849918184718</v>
+        <v>2.198917624108411</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.815974457111875</v>
+        <v>1.819785568540612</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>2.197015547071451</v>
+        <v>2.179684133578467</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.506134911590832</v>
+        <v>4.738727520888925</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.176224336435488</v>
+        <v>3.26762196023322</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.787285099643044</v>
+        <v>2.848512707031683</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.257492063168446</v>
+        <v>3.957887281064914</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>2.410443667254695</v>
+        <v>2.390185546076442</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>2.648121927212823</v>
+        <v>2.587966744654887</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>2.330522744426248</v>
+        <v>2.383410307091359</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.84523882735009</v>
+        <v>2.878382184587116</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.251683814720756</v>
+        <v>3.284711215177211</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2.759694290470529</v>
+        <v>2.761942659368275</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.545114828188618</v>
+        <v>2.504562331744622</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.268462409964781</v>
+        <v>3.246516569977872</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.265793771911606</v>
+        <v>2.311743264709611</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.283189915043315</v>
+        <v>2.286624413771575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.219384246227644</v>
+        <v>2.250809247051035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.071329017210792</v>
+        <v>2.055746048867364</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.367225712944627</v>
+        <v>1.378104165658121</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.940803259951127</v>
+        <v>1.897148273345741</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.979543143382018</v>
+        <v>1.915230328244571</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.379140289176077</v>
+        <v>2.395695580034274</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.203393484317665</v>
+        <v>2.153820678117988</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2.227014500061397</v>
+        <v>2.249328479463944</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2.277054977643998</v>
+        <v>2.295091539907851</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>2.291574366408689</v>
+        <v>2.300968660039924</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.266625773036389</v>
+        <v>4.203871372163035</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.098884659945761</v>
+        <v>3.141985904523941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.037114110534663</v>
+        <v>3.089263685876912</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.343813023304783</v>
+        <v>4.147737986565637</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.077613354120905</v>
+        <v>2.062516156199209</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.752133642232797</v>
+        <v>2.674067142359283</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.969358015380377</v>
+        <v>3.994853482553297</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.910713591349769</v>
+        <v>4.744388083202198</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.94931704029137</v>
+        <v>3.823052285018049</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2.914340416313491</v>
+        <v>2.997567183403882</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3.044266677496729</v>
+        <v>3.032817428753865</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>4.134374421520538</v>
+        <v>3.945263252665709</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.431857075492698</v>
+        <v>2.405727710766005</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.41917533990932</v>
+        <v>2.408017872362262</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.441279780619175</v>
+        <v>2.43134940456937</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.453646277816279</v>
+        <v>2.496971374047461</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.785534856180978</v>
+        <v>1.788423795339908</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.175937083635469</v>
+        <v>2.171103513192413</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.305267089661316</v>
+        <v>2.294010841942996</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.629361078700593</v>
+        <v>2.652747463441731</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.283363110999585</v>
+        <v>2.295769498739678</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2.378896623634455</v>
+        <v>2.391008192985247</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2.457652949615875</v>
+        <v>2.447857409100081</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>2.688889968885233</v>
+        <v>2.696321970515939</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.652097836194506</v>
+        <v>3.744207163044222</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.734269390432082</v>
+        <v>3.838548021827079</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.10073690773705</v>
+        <v>3.107637446813047</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.449982228183596</v>
+        <v>5.49583183812197</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2.355933526666664</v>
+        <v>2.344483690833903</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.014419172847198</v>
+        <v>3.024999785518232</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.982555665400208</v>
+        <v>2.944021833282142</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.681937226147588</v>
+        <v>3.654828134633242</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.173594258382948</v>
+        <v>3.101940298180668</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.220301056796431</v>
+        <v>3.146578485121372</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.930970094328985</v>
+        <v>2.92492647531708</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>4.370566824914902</v>
+        <v>4.389698415930104</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>2.427130323216023</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.71385827576285</v>
+        <v>3.713858275762851</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>2.181654741795912</v>
@@ -1225,7 +1225,7 @@
         <v>2.505093851830163</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>2.728706893367119</v>
+        <v>2.728706893367118</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>2.647486371524977</v>
@@ -1237,7 +1237,7 @@
         <v>2.470076585620858</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>3.161206930922523</v>
+        <v>3.161206930922524</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.145788447630585</v>
+        <v>2.085374629629679</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.090143546299298</v>
+        <v>2.076603446767392</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.112209318276453</v>
+        <v>2.073483954386467</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.783117042911129</v>
+        <v>2.771025806652403</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.876715998367728</v>
+        <v>1.864094789816201</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.215024638536549</v>
+        <v>2.237133554315668</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.199569104452228</v>
+        <v>2.188665958177755</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.245972544355368</v>
+        <v>2.256676714950802</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.121892677425168</v>
+        <v>2.095982484461588</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2.246383073201838</v>
+        <v>2.263792188482595</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2.231451148369717</v>
+        <v>2.23378557748182</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>2.629814174856726</v>
+        <v>2.647079266923409</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.205674333889922</v>
+        <v>5.469855201670749</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.987441382358438</v>
+        <v>2.989734633213403</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.895607246031476</v>
+        <v>2.872728507837807</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.727206289651814</v>
+        <v>5.538853380296354</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.586924847662491</v>
+        <v>2.581783630323886</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.856825820858753</v>
+        <v>2.865197479955879</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.972420853751601</v>
+        <v>2.98315613497015</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.668328117447034</v>
+        <v>3.713685303730006</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.84212079044417</v>
+        <v>3.600929382433526</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2.76578803926862</v>
+        <v>2.776918665167914</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.818821399530535</v>
+        <v>2.77089517594707</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>4.153195462956687</v>
+        <v>4.117552725069459</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>2.776543320217267</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>2.80793140175665</v>
+        <v>2.807931401756651</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>2.578085368305702</v>
@@ -1373,7 +1373,7 @@
         <v>2.618407403755711</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>2.817157064653941</v>
+        <v>2.817157064653943</v>
       </c>
     </row>
     <row r="20">
@@ -1384,38 +1384,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.163719224557603</v>
+        <v>1.164113798476251</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.929833953345387</v>
+        <v>1.891417038885337</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.619585193291886</v>
+        <v>1.656855298221937</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>2.24795459749078</v>
+        <v>2.241025606254521</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.814442167375493</v>
+        <v>1.787596094332301</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.024771840446356</v>
+        <v>2.023328685994341</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.229080639961269</v>
+        <v>2.25036074452573</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.183510101404105</v>
+        <v>2.19253465592614</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1.892258902637871</v>
+        <v>1.907975807151847</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2.02966613231244</v>
+        <v>2.110061979660808</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>2.265960585420942</v>
+        <v>2.276537891171412</v>
       </c>
     </row>
     <row r="21">
@@ -1426,38 +1426,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.952032952589811</v>
+        <v>2.98044767904673</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.094581981346836</v>
+        <v>4.168487849882896</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.969287052214418</v>
+        <v>3.001329931060839</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>3.306715163672978</v>
+        <v>3.270903238372479</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>2.964835259865385</v>
+        <v>2.726436297478586</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>4.581562995326795</v>
+        <v>4.739884253022522</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>4.469539706586223</v>
+        <v>4.407261257771038</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>3.149077597289254</v>
+        <v>3.164207647822586</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2.865165574780093</v>
+        <v>2.814285843277607</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3.922839219269265</v>
+        <v>4.433842432496433</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>4.079266231437771</v>
+        <v>4.095861556838724</v>
       </c>
     </row>
     <row r="22">
@@ -1505,7 +1505,7 @@
         <v>2.526929224427269</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>2.994482379732492</v>
+        <v>2.994482379732493</v>
       </c>
     </row>
     <row r="23">
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.489964439942666</v>
+        <v>2.479839731321146</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.472324490230836</v>
+        <v>2.504968474563871</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.382891100875631</v>
+        <v>2.360595055865588</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.734243973785046</v>
+        <v>2.692769971427099</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.028291952664333</v>
+        <v>2.025559129020244</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.269840658586899</v>
+        <v>2.287350491767571</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.287587348311288</v>
+        <v>2.306211710894902</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.568170788821981</v>
+        <v>2.564063985877393</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.347604168324583</v>
+        <v>2.345201326117865</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2.442452027462509</v>
+        <v>2.439552416660645</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2.395509544339203</v>
+        <v>2.393202387025995</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>2.733623840900568</v>
+        <v>2.756358700893982</v>
       </c>
     </row>
     <row r="24">
@@ -1560,40 +1560,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.258382054231323</v>
+        <v>3.2533973624804</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.992356846268935</v>
+        <v>2.997300131215957</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.775586829901857</v>
+        <v>2.79916743174662</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.123449743784359</v>
+        <v>3.958755742882759</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.380467173248343</v>
+        <v>2.390295121563728</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.627221055260619</v>
+        <v>2.653088081225899</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.766482135751191</v>
+        <v>2.788921881670293</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.103913067993674</v>
+        <v>3.112747066955473</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.83393860114664</v>
+        <v>2.794216130184272</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2.761946355245786</v>
+        <v>2.750439870852743</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2.681084467746388</v>
+        <v>2.70328244818517</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>3.497905728924958</v>
+        <v>3.439218674243016</v>
       </c>
     </row>
     <row r="25">
